--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D2" t="n">
         <v>116</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
         <v>139</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>96</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
         <v>86</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
         <v>84</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="n">
         <v>80</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
         <v>76</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
         <v>64</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
         <v>59</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1547</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>966</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" t="n">
         <v>139</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" t="n">
         <v>96</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
         <v>93</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" t="n">
         <v>86</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
         <v>84</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="n">
         <v>80</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
         <v>76</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
         <v>60</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
         <v>59</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1557</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>976</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>600</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" t="n">
         <v>116</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
         <v>139</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
         <v>90</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
         <v>93</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
         <v>86</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
         <v>84</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
         <v>76</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" t="n">
         <v>64</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" t="n">
         <v>59</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
         <v>59</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1549</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>968</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>595</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>66</v>
+      </c>
+      <c r="G6" t="n">
         <v>93</v>
-      </c>
-      <c r="E6" t="n">
-        <v>114</v>
-      </c>
-      <c r="F6" t="n">
-        <v>138</v>
-      </c>
-      <c r="G6" t="n">
-        <v>176</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>66</v>
+      </c>
+      <c r="G7" t="n">
         <v>92</v>
-      </c>
-      <c r="D7" t="n">
-        <v>86</v>
-      </c>
-      <c r="E7" t="n">
-        <v>105</v>
-      </c>
-      <c r="F7" t="n">
-        <v>130</v>
-      </c>
-      <c r="G7" t="n">
-        <v>171</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F10" t="n">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="G10" t="n">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="G11" t="n">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G12" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G13" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G14" t="n">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F15" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G15" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G16" t="n">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G17" t="n">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1100</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>743</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>482</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B2" t="n">
+        <v>168.5545565968359</v>
       </c>
       <c r="C2" t="n">
-        <v>168</v>
+        <v>223.4526708008543</v>
       </c>
       <c r="D2" t="n">
         <v>40</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>83</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>129</v>
+      </c>
+      <c r="I2" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>119</v>
+      </c>
+      <c r="K2" t="n">
+        <v>238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>107</v>
+      </c>
+      <c r="M2" t="n">
+        <v>172.5806451612903</v>
+      </c>
+      <c r="N2" t="n">
+        <v>86</v>
+      </c>
+      <c r="O2" t="n">
+        <v>103.6144578313253</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A3" t="n">
+        <v>143</v>
+      </c>
+      <c r="B3" t="n">
+        <v>143.3884281823678</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>199.9033361454324</v>
       </c>
       <c r="D3" t="n">
         <v>36</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>77</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>107</v>
+      </c>
+      <c r="I3" t="n">
+        <v>297.2222222222222</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99</v>
+      </c>
+      <c r="K3" t="n">
+        <v>225</v>
+      </c>
+      <c r="L3" t="n">
+        <v>87</v>
+      </c>
+      <c r="M3" t="n">
+        <v>155.3571428571429</v>
+      </c>
+      <c r="N3" t="n">
+        <v>66</v>
+      </c>
+      <c r="O3" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A4" t="n">
+        <v>102</v>
+      </c>
+      <c r="B4" t="n">
+        <v>101.6541923286202</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>158.2928502423478</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>84</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108.1632653061225</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>64.51612903225806</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A5" t="n">
+        <v>71</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70.61301902087433</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>124.6234564707338</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>83</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44.89795918367347</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.51612903225807</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-14.4578313253012</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60.43898968883799</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>113.8204508730087</v>
       </c>
       <c r="D6" t="n">
         <v>41</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>93</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46.34146341463415</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-9.090909090909092</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-33</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-35.48387096774194</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A7" t="n">
+        <v>63</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63.40545334358879</v>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>114.6542671166402</v>
       </c>
       <c r="D7" t="n">
         <v>41</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>92</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>53.65853658536586</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-29</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-31.52173913043478</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A8" t="n">
+        <v>68</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68.39152348217068</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>122.9409300040947</v>
       </c>
       <c r="D8" t="n">
         <v>41</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>92</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>65.85365853658537</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.615384615384616</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-24</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-26.08695652173913</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A9" t="n">
+        <v>70</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70.31028261276067</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>125.0842132509747</v>
       </c>
       <c r="D9" t="n">
         <v>40</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>91</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-23.07692307692308</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A10" t="n">
+        <v>67</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67.49247186286065</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>124.9935575005797</v>
       </c>
       <c r="D10" t="n">
         <v>39</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>88</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I10" t="n">
+        <v>71.7948717948718</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.58333333333333</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.349206349206349</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-23.86363636363636</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A11" t="n">
+        <v>58</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57.77775973986444</v>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>114.1606385874575</v>
       </c>
       <c r="D11" t="n">
         <v>39</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>89</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48.71794871794872</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-7.936507936507936</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-31</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-34.83146067415731</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42.06169282982462</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>93.02268738287252</v>
       </c>
       <c r="D12" t="n">
         <v>39</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>89</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-10.63829787234043</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-47</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-52.80898876404494</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.62080221916697</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>85.92429578995632</v>
       </c>
       <c r="D13" t="n">
         <v>42</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>95</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-30.95238095238095</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-44.23076923076923</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-57.35294117647059</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-66</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-69.47368421052632</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B14" t="n">
+        <v>27.48417214249511</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>85.96204076498844</v>
       </c>
       <c r="D14" t="n">
         <v>39</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>88</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-30.76923076923077</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-42.5531914893617</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-56.45161290322581</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-61</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-69.31818181818183</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A15" t="n">
+        <v>39</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38.54306737992964</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>94.02496387324591</v>
       </c>
       <c r="D15" t="n">
         <v>38</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>88</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-15.21739130434783</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-37.09677419354838</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-49</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-55.68181818181818</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A16" t="n">
+        <v>49</v>
+      </c>
+      <c r="B16" t="n">
+        <v>49.20213805127906</v>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>101.6302369968299</v>
       </c>
       <c r="D16" t="n">
         <v>39</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>88</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25.64102564102564</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.25531914893617</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-20.96774193548387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-39</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-44.31818181818182</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47.80965529528768</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>108.3168274954743</v>
       </c>
       <c r="D17" t="n">
         <v>38</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>88</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.127659574468085</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-22.58064516129032</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-40</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-45.45454545454545</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1105</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>746</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>485</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>63</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>57</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>68</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>79</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>95</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>63</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>55</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>66</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>78</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>96</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>63</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>57</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>69</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>81</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>102</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>54</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>66</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>78</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>98</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>63</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>56</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>68</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>81</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>103</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>61</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>56</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>69</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>83</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>106</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>52</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>64</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>77</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>99</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>54</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>53</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>65</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>102</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>52</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>51</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>62</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>75</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>97</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>56</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>61</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>75</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>98</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>56</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>47</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>57</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>72</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>96</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>57</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>61</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>77</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>102</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>55</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>49</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>60</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>74</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>96</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>54</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>45</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>55</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>69</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>94</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>56</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>45</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>55</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>69</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>93</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>46</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>46</v>
       </c>
       <c r="E17" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" t="n">
         <v>57</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>72</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>96</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A520M S2H</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
         <v>57</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>57</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>54</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
         <v>56</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>56</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
         <v>52</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v>53</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
         <v>47</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>45</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>45</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>46</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8787 units</t>
+          <t>8985 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>1091</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>578</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>316</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="H2" t="n">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="H3" t="n">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="G4" t="n">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="H4" t="n">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="H5" t="n">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F6" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H6" t="n">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="H7" t="n">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G8" t="n">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H8" t="n">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="G9" t="n">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="H9" t="n">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="H10" t="n">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="H11" t="n">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G12" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="H12" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G13" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="H13" t="n">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="H14" t="n">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G15" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H15" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F16" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="H16" t="n">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H17" t="n">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8985 units</t>
+          <t>9207 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1811</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>967</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>546</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="n">
         <v>169</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" t="n">
         <v>129</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="n">
         <v>115</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" t="n">
         <v>109</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1883</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>958</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>542</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E2" t="n">
         <v>169</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
         <v>129</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E4" t="n">
         <v>115</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" t="n">
         <v>109</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
         <v>98</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E10" t="n">
         <v>97</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
         <v>89</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
         <v>87</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1930</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>927</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>557</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" t="n">
         <v>115</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="n">
         <v>89</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1932</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>928</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>555</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="E2" t="n">
         <v>169</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
         <v>129</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
         <v>115</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E6" t="n">
         <v>109</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
         <v>102</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
         <v>98</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
         <v>89</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E12" t="n">
         <v>87</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>209</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9207 units</t>
+          <t>9424 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>1209</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>677</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>220</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1943</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1945</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
         <v>88</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" t="n">
         <v>81</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
         <v>81</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1950</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E2" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F2" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H2" t="n">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F3" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G3" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H3" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G4" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H4" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G5" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H5" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F6" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H6" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F7" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G7" t="n">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H7" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H8" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F9" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G9" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H9" t="n">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F10" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G10" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H10" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G11" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H11" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G12" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H12" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F13" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G13" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H13" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H14" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F15" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G15" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H15" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G16" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H16" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G17" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H17" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9424 units</t>
+          <t>9557 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1072</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>580</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E2" t="n">
         <v>175</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
         <v>123</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
         <v>118</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E9" t="n">
         <v>110</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="n">
         <v>108</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1048</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>567</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>89</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E2" t="n">
         <v>175</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
         <v>123</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
         <v>118</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
         <v>110</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
         <v>108</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2045</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1086</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>588</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
+++ b/Sufficient data/forecast_summary_B08F7HPJ4F.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" t="n">
         <v>175</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
         <v>132</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" t="n">
         <v>123</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
         <v>118</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="n">
         <v>114</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="n">
         <v>110</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
         <v>108</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
         <v>92</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1068</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>579</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-05-18</t>
         </is>
       </c>
     </row>
